--- a/design/excel/enemy_config.xlsx
+++ b/design/excel/enemy_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>序号</t>
   </si>
@@ -25,7 +25,8 @@
   </si>
   <si>
     <t>敌人类型
-1==普通敌人</t>
+1==普通敌人
+2==普通敌人</t>
   </si>
   <si>
     <t>皮肤挂点</t>
@@ -74,6 +75,12 @@
   </si>
   <si>
     <t>guaiwu_01/Quad</t>
+  </si>
+  <si>
+    <t>enemy_1</t>
+  </si>
+  <si>
+    <t>BOSS_03/Quad</t>
   </si>
 </sst>
 </file>
@@ -82,9 +89,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,32 +104,56 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,7 +166,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,52 +203,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,29 +233,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -248,19 +255,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,67 +285,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,91 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +446,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,24 +502,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -485,16 +509,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,28 +538,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,145 +554,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,7 +1063,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1070,7 +1077,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:7">
+    <row r="1" ht="40.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,9 +1169,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="5:7">
-      <c r="E5" s="4"/>
-      <c r="G5" s="4"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
